--- a/Bom_VerdiRT7_MainPCB.xlsx
+++ b/Bom_VerdiRT7_MainPCB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12570"/>
+    <workbookView xWindow="600" yWindow="360" windowWidth="27795" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Bom_VerdiRT7_MainPCB" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="167">
   <si>
     <t>Qty</t>
   </si>
@@ -274,6 +274,12 @@
     <t>SW201</t>
   </si>
   <si>
+    <t>BASE_HOLE</t>
+  </si>
+  <si>
+    <t>S1, S2</t>
+  </si>
+  <si>
     <t>BM02B-SRSS-TB(LF)(SN)</t>
   </si>
   <si>
@@ -337,6 +343,21 @@
     <t>PI401, PI402</t>
   </si>
   <si>
+    <t>GUIDE_HOLE_1</t>
+  </si>
+  <si>
+    <t>GUIDE_HOLE</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>GUIDE_HOLE_2</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
     <t>ICM-20602</t>
   </si>
   <si>
@@ -389,6 +410,27 @@
   </si>
   <si>
     <t>U104</t>
+  </si>
+  <si>
+    <t>RECOG_MARK_1</t>
+  </si>
+  <si>
+    <t>RECOG_MARK</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>RECOG_MARK_2</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>RECOG_MARK_3</t>
+  </si>
+  <si>
+    <t>S7</t>
   </si>
   <si>
     <t>RT9625AZQW</t>
@@ -1412,10 +1454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2206,7 +2248,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B39" t="s">
         <v>86</v>
@@ -2215,13 +2257,13 @@
         <v>86</v>
       </c>
       <c r="D39" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" t="s">
         <v>87</v>
       </c>
-      <c r="E39" t="s">
-        <v>88</v>
-      </c>
       <c r="I39">
-        <v>6.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
@@ -2229,39 +2271,42 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" t="s">
         <v>89</v>
       </c>
-      <c r="C40" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>90</v>
-      </c>
-      <c r="E40" t="s">
-        <v>91</v>
       </c>
       <c r="I40">
         <v>6.3</v>
       </c>
-      <c r="J40" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>1</v>
       </c>
       <c r="B41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" t="s">
         <v>93</v>
       </c>
-      <c r="C41" t="s">
-        <v>93</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="I41">
+        <v>6.3</v>
+      </c>
+      <c r="J41" t="s">
         <v>94</v>
-      </c>
-      <c r="E41" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
@@ -2269,125 +2314,119 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" t="s">
         <v>96</v>
       </c>
-      <c r="C42" t="s">
-        <v>96</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>97</v>
-      </c>
-      <c r="E42" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" t="s">
         <v>99</v>
       </c>
-      <c r="C43" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>100</v>
-      </c>
-      <c r="E43" t="s">
-        <v>101</v>
-      </c>
-      <c r="G43" t="s">
-        <v>102</v>
-      </c>
-      <c r="I43">
-        <v>1.2</v>
-      </c>
-      <c r="M43" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" t="s">
+        <v>103</v>
+      </c>
+      <c r="G44" t="s">
         <v>104</v>
       </c>
-      <c r="C44" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="I44">
+        <v>1.2</v>
+      </c>
+      <c r="M44" t="s">
         <v>105</v>
-      </c>
-      <c r="E44" t="s">
-        <v>106</v>
-      </c>
-      <c r="I44">
-        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B45" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" t="s">
         <v>107</v>
       </c>
-      <c r="C45" t="s">
-        <v>107</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>108</v>
       </c>
-      <c r="E45" t="s">
-        <v>109</v>
-      </c>
       <c r="I45">
-        <v>0.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" t="s">
         <v>110</v>
       </c>
-      <c r="C46" t="s">
-        <v>110</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>111</v>
       </c>
-      <c r="E46" t="s">
-        <v>112</v>
-      </c>
       <c r="I46">
-        <v>1.45</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" t="s">
+        <v>110</v>
+      </c>
+      <c r="E47" t="s">
         <v>113</v>
       </c>
-      <c r="C47" t="s">
-        <v>113</v>
-      </c>
-      <c r="D47" t="s">
-        <v>114</v>
-      </c>
-      <c r="E47" t="s">
-        <v>115</v>
-      </c>
       <c r="I47">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L47" t="s">
-        <v>116</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
@@ -2395,238 +2434,361 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C48" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D48" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E48" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I48">
         <v>0.8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" t="s">
+        <v>118</v>
+      </c>
+      <c r="E49" t="s">
+        <v>119</v>
+      </c>
+      <c r="I49">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
         <v>120</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>120</v>
       </c>
-      <c r="D49">
-        <v>3225</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="D50" t="s">
         <v>121</v>
       </c>
-      <c r="I49">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="E50" t="s">
         <v>122</v>
       </c>
-      <c r="C50" t="s">
-        <v>122</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="I50">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L50" t="s">
         <v>123</v>
       </c>
-      <c r="E50" t="s">
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
         <v>124</v>
       </c>
-      <c r="I50">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A51">
-        <v>3</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" t="s">
         <v>125</v>
       </c>
-      <c r="C51" t="s">
-        <v>125</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>126</v>
-      </c>
-      <c r="E51" t="s">
-        <v>127</v>
       </c>
       <c r="I51">
         <v>0.8</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>1</v>
       </c>
       <c r="B52" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52">
+        <v>3225</v>
+      </c>
+      <c r="E52" t="s">
         <v>128</v>
       </c>
-      <c r="C52" t="s">
-        <v>128</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="I52">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
         <v>129</v>
       </c>
-      <c r="E52" t="s">
+      <c r="C53" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A53">
+      <c r="E53" t="s">
+        <v>131</v>
+      </c>
+      <c r="I53">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" t="s">
+        <v>132</v>
+      </c>
+      <c r="D54" t="s">
+        <v>133</v>
+      </c>
+      <c r="E54" t="s">
+        <v>134</v>
+      </c>
+      <c r="I54">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" t="s">
+        <v>135</v>
+      </c>
+      <c r="D55" t="s">
+        <v>133</v>
+      </c>
+      <c r="E55" t="s">
+        <v>136</v>
+      </c>
+      <c r="I55">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56" t="s">
+        <v>133</v>
+      </c>
+      <c r="E56" t="s">
+        <v>138</v>
+      </c>
+      <c r="I56">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" t="s">
+        <v>140</v>
+      </c>
+      <c r="E57" t="s">
+        <v>141</v>
+      </c>
+      <c r="I57">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>142</v>
+      </c>
+      <c r="C58" t="s">
+        <v>142</v>
+      </c>
+      <c r="D58" t="s">
+        <v>143</v>
+      </c>
+      <c r="E58" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A59">
         <v>6</v>
       </c>
-      <c r="B53" t="s">
-        <v>131</v>
-      </c>
-      <c r="C53" t="s">
-        <v>131</v>
-      </c>
-      <c r="D53" t="s">
-        <v>132</v>
-      </c>
-      <c r="E53" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A54">
-        <v>1</v>
-      </c>
-      <c r="B54" t="s">
-        <v>134</v>
-      </c>
-      <c r="C54" t="s">
-        <v>134</v>
-      </c>
-      <c r="D54" t="s">
-        <v>135</v>
-      </c>
-      <c r="E54" t="s">
-        <v>136</v>
-      </c>
-      <c r="H54" t="s">
-        <v>137</v>
-      </c>
-      <c r="I54">
+      <c r="B59" t="s">
+        <v>145</v>
+      </c>
+      <c r="C59" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E59" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" t="s">
+        <v>149</v>
+      </c>
+      <c r="E60" t="s">
+        <v>150</v>
+      </c>
+      <c r="H60" t="s">
+        <v>151</v>
+      </c>
+      <c r="I60">
         <v>2.5</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A55">
-        <v>1</v>
-      </c>
-      <c r="B55" t="s">
-        <v>138</v>
-      </c>
-      <c r="C55" t="s">
-        <v>138</v>
-      </c>
-      <c r="D55" t="s">
-        <v>139</v>
-      </c>
-      <c r="E55" t="s">
-        <v>140</v>
-      </c>
-      <c r="I55">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>152</v>
+      </c>
+      <c r="C61" t="s">
+        <v>152</v>
+      </c>
+      <c r="D61" t="s">
+        <v>153</v>
+      </c>
+      <c r="E61" t="s">
+        <v>154</v>
+      </c>
+      <c r="I61">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56">
-        <v>1</v>
-      </c>
-      <c r="B56" t="s">
-        <v>141</v>
-      </c>
-      <c r="C56" t="s">
-        <v>141</v>
-      </c>
-      <c r="D56" t="s">
-        <v>142</v>
-      </c>
-      <c r="E56" t="s">
-        <v>143</v>
-      </c>
-      <c r="I56">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" t="s">
+        <v>155</v>
+      </c>
+      <c r="D62" t="s">
+        <v>156</v>
+      </c>
+      <c r="E62" t="s">
+        <v>157</v>
+      </c>
+      <c r="I62">
         <v>2.1</v>
       </c>
-      <c r="K56" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57">
-        <v>1</v>
-      </c>
-      <c r="B57" t="s">
-        <v>145</v>
-      </c>
-      <c r="C57" t="s">
-        <v>145</v>
-      </c>
-      <c r="D57" t="s">
-        <v>146</v>
-      </c>
-      <c r="E57" t="s">
-        <v>147</v>
-      </c>
-      <c r="I57">
+      <c r="K62" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" t="s">
+        <v>159</v>
+      </c>
+      <c r="D63" t="s">
+        <v>160</v>
+      </c>
+      <c r="E63" t="s">
+        <v>161</v>
+      </c>
+      <c r="I63">
         <v>2.1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58">
-        <v>1</v>
-      </c>
-      <c r="B58" t="s">
-        <v>148</v>
-      </c>
-      <c r="C58" t="s">
-        <v>148</v>
-      </c>
-      <c r="D58" t="s">
-        <v>149</v>
-      </c>
-      <c r="E58" t="s">
-        <v>150</v>
-      </c>
-      <c r="I58">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64" t="s">
+        <v>162</v>
+      </c>
+      <c r="D64" t="s">
+        <v>163</v>
+      </c>
+      <c r="E64" t="s">
+        <v>164</v>
+      </c>
+      <c r="I64">
         <v>0.75</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A59">
-        <v>1</v>
-      </c>
-      <c r="B59" t="s">
-        <v>151</v>
-      </c>
-      <c r="C59" t="s">
-        <v>151</v>
-      </c>
-      <c r="D59" t="s">
-        <v>149</v>
-      </c>
-      <c r="E59" t="s">
-        <v>152</v>
-      </c>
-      <c r="I59">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>165</v>
+      </c>
+      <c r="C65" t="s">
+        <v>165</v>
+      </c>
+      <c r="D65" t="s">
+        <v>163</v>
+      </c>
+      <c r="E65" t="s">
+        <v>166</v>
+      </c>
+      <c r="I65">
         <v>0.75</v>
       </c>
     </row>
